--- a/04-추론적_데이터_분석/04-5 로지스틱회귀/범죄.xlsx
+++ b/04-추론적_데이터_분석/04-5 로지스틱회귀/범죄.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26920"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27002"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5E4475A6-DC43-437D-953F-4CB3F6C708D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5498A43B-1E6B-4002-9D60-7F435B78BE85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="44">
   <si>
     <t>전국</t>
   </si>
@@ -91,6 +91,24 @@
   </si>
   <si>
     <t>화장실</t>
+  </si>
+  <si>
+    <t>창고</t>
+  </si>
+  <si>
+    <t>역, 대합실</t>
+  </si>
+  <si>
+    <t>기타 교통수단</t>
+  </si>
+  <si>
+    <t>흥행장</t>
+  </si>
+  <si>
+    <t>금융기관</t>
+  </si>
+  <si>
+    <t>산야</t>
   </si>
   <si>
     <t>살인기수</t>
@@ -493,15 +511,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V129"/>
+  <dimension ref="A1:AB129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
-      <selection activeCell="V130" sqref="V130"/>
+    <sheetView tabSelected="1" topLeftCell="Q28" workbookViewId="0">
+      <selection activeCell="AA49" sqref="AA49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:28">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -565,10 +583,28 @@
       <c r="V1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:22">
+      <c r="W1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B2">
         <v>275</v>
@@ -633,10 +669,28 @@
       <c r="V2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:22">
+      <c r="W2">
+        <v>0</v>
+      </c>
+      <c r="X2">
+        <v>1</v>
+      </c>
+      <c r="Y2">
+        <v>3</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+      <c r="AA2">
+        <v>0</v>
+      </c>
+      <c r="AB2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B3">
         <v>427</v>
@@ -701,10 +755,28 @@
       <c r="V3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:22">
+      <c r="W3">
+        <v>1</v>
+      </c>
+      <c r="X3">
+        <v>1</v>
+      </c>
+      <c r="Y3">
+        <v>8</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+      <c r="AA3">
+        <v>1</v>
+      </c>
+      <c r="AB3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B4">
         <v>516</v>
@@ -769,10 +841,28 @@
       <c r="V4">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:22">
+      <c r="W4">
+        <v>0</v>
+      </c>
+      <c r="X4">
+        <v>5</v>
+      </c>
+      <c r="Y4">
+        <v>15</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+      <c r="AA4">
+        <v>2</v>
+      </c>
+      <c r="AB4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28">
       <c r="A5" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="B5">
         <v>5467</v>
@@ -837,10 +927,28 @@
       <c r="V5">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:22">
+      <c r="W5">
+        <v>3</v>
+      </c>
+      <c r="X5">
+        <v>2</v>
+      </c>
+      <c r="Y5">
+        <v>131</v>
+      </c>
+      <c r="Z5">
+        <v>1</v>
+      </c>
+      <c r="AA5">
+        <v>0</v>
+      </c>
+      <c r="AB5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28">
       <c r="A6" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="B6">
         <v>947</v>
@@ -905,10 +1013,28 @@
       <c r="V6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:22">
+      <c r="W6">
+        <v>0</v>
+      </c>
+      <c r="X6">
+        <v>0</v>
+      </c>
+      <c r="Y6">
+        <v>47</v>
+      </c>
+      <c r="Z6">
+        <v>2</v>
+      </c>
+      <c r="AA6">
+        <v>0</v>
+      </c>
+      <c r="AB6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28">
       <c r="A7" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B7">
         <v>15864</v>
@@ -973,10 +1099,28 @@
       <c r="V7">
         <v>37</v>
       </c>
-    </row>
-    <row r="8" spans="1:22">
+      <c r="W7">
+        <v>9</v>
+      </c>
+      <c r="X7">
+        <v>313</v>
+      </c>
+      <c r="Y7">
+        <v>1017</v>
+      </c>
+      <c r="Z7">
+        <v>95</v>
+      </c>
+      <c r="AA7">
+        <v>18</v>
+      </c>
+      <c r="AB7">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28">
       <c r="A8" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="B8">
         <v>225</v>
@@ -1041,10 +1185,28 @@
       <c r="V8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:22">
+      <c r="W8">
+        <v>1</v>
+      </c>
+      <c r="X8">
+        <v>0</v>
+      </c>
+      <c r="Y8">
+        <v>3</v>
+      </c>
+      <c r="Z8">
+        <v>0</v>
+      </c>
+      <c r="AA8">
+        <v>0</v>
+      </c>
+      <c r="AB8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28">
       <c r="A9" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="B9">
         <v>1233</v>
@@ -1109,10 +1271,28 @@
       <c r="V9">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:22">
+      <c r="W9">
+        <v>10</v>
+      </c>
+      <c r="X9">
+        <v>7</v>
+      </c>
+      <c r="Y9">
+        <v>2</v>
+      </c>
+      <c r="Z9">
+        <v>3</v>
+      </c>
+      <c r="AA9">
+        <v>5</v>
+      </c>
+      <c r="AB9">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28">
       <c r="A10" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="B10">
         <v>26806</v>
@@ -1177,10 +1357,28 @@
       <c r="V10">
         <v>53</v>
       </c>
-    </row>
-    <row r="11" spans="1:22">
+      <c r="W10">
+        <v>33</v>
+      </c>
+      <c r="X10">
+        <v>118</v>
+      </c>
+      <c r="Y10">
+        <v>152</v>
+      </c>
+      <c r="Z10">
+        <v>38</v>
+      </c>
+      <c r="AA10">
+        <v>13</v>
+      </c>
+      <c r="AB10">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28">
       <c r="A11" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="B11">
         <v>125217</v>
@@ -1245,10 +1443,28 @@
       <c r="V11">
         <v>257</v>
       </c>
-    </row>
-    <row r="12" spans="1:22">
+      <c r="W11">
+        <v>92</v>
+      </c>
+      <c r="X11">
+        <v>856</v>
+      </c>
+      <c r="Y11">
+        <v>3200</v>
+      </c>
+      <c r="Z11">
+        <v>160</v>
+      </c>
+      <c r="AA11">
+        <v>100</v>
+      </c>
+      <c r="AB11">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28">
       <c r="A12" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="B12">
         <v>1145</v>
@@ -1313,10 +1529,28 @@
       <c r="V12">
         <v>7</v>
       </c>
-    </row>
-    <row r="13" spans="1:22">
+      <c r="W12">
+        <v>0</v>
+      </c>
+      <c r="X12">
+        <v>4</v>
+      </c>
+      <c r="Y12">
+        <v>137</v>
+      </c>
+      <c r="Z12">
+        <v>0</v>
+      </c>
+      <c r="AA12">
+        <v>2</v>
+      </c>
+      <c r="AB12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28">
       <c r="A13" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="B13">
         <v>21567</v>
@@ -1381,10 +1615,28 @@
       <c r="V13">
         <v>29</v>
       </c>
-    </row>
-    <row r="14" spans="1:22">
+      <c r="W13">
+        <v>12</v>
+      </c>
+      <c r="X13">
+        <v>30</v>
+      </c>
+      <c r="Y13">
+        <v>113</v>
+      </c>
+      <c r="Z13">
+        <v>24</v>
+      </c>
+      <c r="AA13">
+        <v>11</v>
+      </c>
+      <c r="AB13">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28">
       <c r="A14" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B14">
         <v>276</v>
@@ -1449,10 +1701,28 @@
       <c r="V14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:22">
+      <c r="W14">
+        <v>0</v>
+      </c>
+      <c r="X14">
+        <v>1</v>
+      </c>
+      <c r="Y14">
+        <v>0</v>
+      </c>
+      <c r="Z14">
+        <v>0</v>
+      </c>
+      <c r="AA14">
+        <v>0</v>
+      </c>
+      <c r="AB14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28">
       <c r="A15" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="B15">
         <v>6745</v>
@@ -1517,10 +1787,28 @@
       <c r="V15">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:22">
+      <c r="W15">
+        <v>6</v>
+      </c>
+      <c r="X15">
+        <v>14</v>
+      </c>
+      <c r="Y15">
+        <v>37</v>
+      </c>
+      <c r="Z15">
+        <v>5</v>
+      </c>
+      <c r="AA15">
+        <v>3</v>
+      </c>
+      <c r="AB15">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28">
       <c r="A16" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="B16">
         <v>6904</v>
@@ -1585,10 +1873,28 @@
       <c r="V16">
         <v>18</v>
       </c>
-    </row>
-    <row r="17" spans="1:22">
+      <c r="W16">
+        <v>0</v>
+      </c>
+      <c r="X16">
+        <v>20</v>
+      </c>
+      <c r="Y16">
+        <v>18</v>
+      </c>
+      <c r="Z16">
+        <v>1</v>
+      </c>
+      <c r="AA16">
+        <v>10</v>
+      </c>
+      <c r="AB16">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:28">
       <c r="A17" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B17">
         <v>56626</v>
@@ -1653,10 +1959,28 @@
       <c r="V17">
         <v>119</v>
       </c>
-    </row>
-    <row r="18" spans="1:22">
+      <c r="W17">
+        <v>61</v>
+      </c>
+      <c r="X17">
+        <v>192</v>
+      </c>
+      <c r="Y17">
+        <v>164</v>
+      </c>
+      <c r="Z17">
+        <v>30</v>
+      </c>
+      <c r="AA17">
+        <v>110</v>
+      </c>
+      <c r="AB17">
+        <v>1431</v>
+      </c>
+    </row>
+    <row r="18" spans="1:28">
       <c r="A18" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B18">
         <v>270</v>
@@ -1721,10 +2045,28 @@
       <c r="V18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:22">
+      <c r="W18">
+        <v>0</v>
+      </c>
+      <c r="X18">
+        <v>0</v>
+      </c>
+      <c r="Y18">
+        <v>7</v>
+      </c>
+      <c r="Z18">
+        <v>0</v>
+      </c>
+      <c r="AA18">
+        <v>0</v>
+      </c>
+      <c r="AB18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:28">
       <c r="A19" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B19">
         <v>388</v>
@@ -1789,10 +2131,28 @@
       <c r="V19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:22">
+      <c r="W19">
+        <v>0</v>
+      </c>
+      <c r="X19">
+        <v>1</v>
+      </c>
+      <c r="Y19">
+        <v>1</v>
+      </c>
+      <c r="Z19">
+        <v>0</v>
+      </c>
+      <c r="AA19">
+        <v>0</v>
+      </c>
+      <c r="AB19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:28">
       <c r="A20" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B20">
         <v>495</v>
@@ -1857,10 +2217,28 @@
       <c r="V20">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:22">
+      <c r="W20">
+        <v>1</v>
+      </c>
+      <c r="X20">
+        <v>2</v>
+      </c>
+      <c r="Y20">
+        <v>8</v>
+      </c>
+      <c r="Z20">
+        <v>0</v>
+      </c>
+      <c r="AA20">
+        <v>2</v>
+      </c>
+      <c r="AB20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:28">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="B21">
         <v>5263</v>
@@ -1925,10 +2303,28 @@
       <c r="V21">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="1:22">
+      <c r="W21">
+        <v>5</v>
+      </c>
+      <c r="X21">
+        <v>1</v>
+      </c>
+      <c r="Y21">
+        <v>136</v>
+      </c>
+      <c r="Z21">
+        <v>2</v>
+      </c>
+      <c r="AA21">
+        <v>0</v>
+      </c>
+      <c r="AB21">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:28">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="B22">
         <v>814</v>
@@ -1993,10 +2389,28 @@
       <c r="V22">
         <v>43</v>
       </c>
-    </row>
-    <row r="23" spans="1:22">
+      <c r="W22">
+        <v>1</v>
+      </c>
+      <c r="X22">
+        <v>0</v>
+      </c>
+      <c r="Y22">
+        <v>32</v>
+      </c>
+      <c r="Z22">
+        <v>0</v>
+      </c>
+      <c r="AA22">
+        <v>0</v>
+      </c>
+      <c r="AB22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:28">
       <c r="A23" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B23">
         <v>13962</v>
@@ -2061,10 +2475,28 @@
       <c r="V23">
         <v>9</v>
       </c>
-    </row>
-    <row r="24" spans="1:22">
+      <c r="W23">
+        <v>10</v>
+      </c>
+      <c r="X23">
+        <v>321</v>
+      </c>
+      <c r="Y23">
+        <v>904</v>
+      </c>
+      <c r="Z23">
+        <v>93</v>
+      </c>
+      <c r="AA23">
+        <v>10</v>
+      </c>
+      <c r="AB23">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:28">
       <c r="A24" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="B24">
         <v>238</v>
@@ -2129,10 +2561,28 @@
       <c r="V24">
         <v>66</v>
       </c>
-    </row>
-    <row r="25" spans="1:22">
+      <c r="W24">
+        <v>0</v>
+      </c>
+      <c r="X24">
+        <v>0</v>
+      </c>
+      <c r="Y24">
+        <v>3</v>
+      </c>
+      <c r="Z24">
+        <v>0</v>
+      </c>
+      <c r="AA24">
+        <v>0</v>
+      </c>
+      <c r="AB24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:28">
       <c r="A25" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="B25">
         <v>1046</v>
@@ -2197,10 +2647,28 @@
       <c r="V25">
         <v>3</v>
       </c>
-    </row>
-    <row r="26" spans="1:22">
+      <c r="W25">
+        <v>12</v>
+      </c>
+      <c r="X25">
+        <v>3</v>
+      </c>
+      <c r="Y25">
+        <v>2</v>
+      </c>
+      <c r="Z25">
+        <v>0</v>
+      </c>
+      <c r="AA25">
+        <v>1</v>
+      </c>
+      <c r="AB25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:28">
       <c r="A26" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="B26">
         <v>28453</v>
@@ -2265,10 +2733,28 @@
       <c r="V26">
         <v>9</v>
       </c>
-    </row>
-    <row r="27" spans="1:22">
+      <c r="W26">
+        <v>40</v>
+      </c>
+      <c r="X26">
+        <v>120</v>
+      </c>
+      <c r="Y26">
+        <v>204</v>
+      </c>
+      <c r="Z26">
+        <v>26</v>
+      </c>
+      <c r="AA26">
+        <v>12</v>
+      </c>
+      <c r="AB26">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="27" spans="1:28">
       <c r="A27" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="B27">
         <v>115942</v>
@@ -2333,10 +2819,28 @@
       <c r="V27">
         <v>34</v>
       </c>
-    </row>
-    <row r="28" spans="1:22">
+      <c r="W27">
+        <v>92</v>
+      </c>
+      <c r="X27">
+        <v>796</v>
+      </c>
+      <c r="Y27">
+        <v>3090</v>
+      </c>
+      <c r="Z27">
+        <v>97</v>
+      </c>
+      <c r="AA27">
+        <v>72</v>
+      </c>
+      <c r="AB27">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="28" spans="1:28">
       <c r="A28" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="B28">
         <v>1165</v>
@@ -2401,10 +2905,28 @@
       <c r="V28">
         <v>160</v>
       </c>
-    </row>
-    <row r="29" spans="1:22">
+      <c r="W28">
+        <v>0</v>
+      </c>
+      <c r="X28">
+        <v>3</v>
+      </c>
+      <c r="Y28">
+        <v>139</v>
+      </c>
+      <c r="Z28">
+        <v>0</v>
+      </c>
+      <c r="AA28">
+        <v>1</v>
+      </c>
+      <c r="AB28">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:28">
       <c r="A29" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="B29">
         <v>21058</v>
@@ -2469,10 +2991,28 @@
       <c r="V29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:22">
+      <c r="W29">
+        <v>9</v>
+      </c>
+      <c r="X29">
+        <v>30</v>
+      </c>
+      <c r="Y29">
+        <v>117</v>
+      </c>
+      <c r="Z29">
+        <v>17</v>
+      </c>
+      <c r="AA29">
+        <v>17</v>
+      </c>
+      <c r="AB29">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="30" spans="1:28">
       <c r="A30" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="B30">
         <v>240</v>
@@ -2537,10 +3077,28 @@
       <c r="V30">
         <v>5</v>
       </c>
-    </row>
-    <row r="31" spans="1:22">
+      <c r="W30">
+        <v>0</v>
+      </c>
+      <c r="X30">
+        <v>0</v>
+      </c>
+      <c r="Y30">
+        <v>3</v>
+      </c>
+      <c r="Z30">
+        <v>0</v>
+      </c>
+      <c r="AA30">
+        <v>2</v>
+      </c>
+      <c r="AB30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:28">
       <c r="A31" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="B31">
         <v>6484</v>
@@ -2605,10 +3163,28 @@
       <c r="V31">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:22">
+      <c r="W31">
+        <v>6</v>
+      </c>
+      <c r="X31">
+        <v>20</v>
+      </c>
+      <c r="Y31">
+        <v>36</v>
+      </c>
+      <c r="Z31">
+        <v>7</v>
+      </c>
+      <c r="AA31">
+        <v>5</v>
+      </c>
+      <c r="AB31">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="32" spans="1:28">
       <c r="A32" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="B32">
         <v>5131</v>
@@ -2673,10 +3249,28 @@
       <c r="V32">
         <v>28</v>
       </c>
-    </row>
-    <row r="33" spans="1:22">
+      <c r="W32">
+        <v>3</v>
+      </c>
+      <c r="X32">
+        <v>5</v>
+      </c>
+      <c r="Y32">
+        <v>30</v>
+      </c>
+      <c r="Z32">
+        <v>1</v>
+      </c>
+      <c r="AA32">
+        <v>18</v>
+      </c>
+      <c r="AB32">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:28">
       <c r="A33" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B33">
         <v>54188</v>
@@ -2741,10 +3335,28 @@
       <c r="V33">
         <v>134</v>
       </c>
-    </row>
-    <row r="34" spans="1:22">
+      <c r="W33">
+        <v>85</v>
+      </c>
+      <c r="X33">
+        <v>131</v>
+      </c>
+      <c r="Y33">
+        <v>190</v>
+      </c>
+      <c r="Z33">
+        <v>32</v>
+      </c>
+      <c r="AA33">
+        <v>98</v>
+      </c>
+      <c r="AB33">
+        <v>1453</v>
+      </c>
+    </row>
+    <row r="34" spans="1:28">
       <c r="A34" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B34">
         <v>308</v>
@@ -2809,10 +3421,28 @@
       <c r="V34">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:22">
+      <c r="W34">
+        <v>0</v>
+      </c>
+      <c r="X34">
+        <v>1</v>
+      </c>
+      <c r="Y34">
+        <v>3</v>
+      </c>
+      <c r="Z34">
+        <v>0</v>
+      </c>
+      <c r="AA34">
+        <v>0</v>
+      </c>
+      <c r="AB34">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35" spans="1:28">
       <c r="A35" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B35">
         <v>416</v>
@@ -2877,10 +3507,28 @@
       <c r="V35">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:22">
+      <c r="W35">
+        <v>0</v>
+      </c>
+      <c r="X35">
+        <v>2</v>
+      </c>
+      <c r="Y35">
+        <v>8</v>
+      </c>
+      <c r="Z35">
+        <v>0</v>
+      </c>
+      <c r="AA35">
+        <v>0</v>
+      </c>
+      <c r="AB35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:28">
       <c r="A36" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B36">
         <v>663</v>
@@ -2945,10 +3593,28 @@
       <c r="V36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:22">
+      <c r="W36">
+        <v>3</v>
+      </c>
+      <c r="X36">
+        <v>4</v>
+      </c>
+      <c r="Y36">
+        <v>13</v>
+      </c>
+      <c r="Z36">
+        <v>0</v>
+      </c>
+      <c r="AA36">
+        <v>4</v>
+      </c>
+      <c r="AB36">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:28">
       <c r="A37" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="B37">
         <v>5313</v>
@@ -3013,10 +3679,28 @@
       <c r="V37">
         <v>44</v>
       </c>
-    </row>
-    <row r="38" spans="1:22">
+      <c r="W37">
+        <v>4</v>
+      </c>
+      <c r="X37">
+        <v>0</v>
+      </c>
+      <c r="Y37">
+        <v>135</v>
+      </c>
+      <c r="Z37">
+        <v>4</v>
+      </c>
+      <c r="AA37">
+        <v>0</v>
+      </c>
+      <c r="AB37">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:28">
       <c r="A38" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="B38">
         <v>823</v>
@@ -3081,10 +3765,28 @@
       <c r="V38">
         <v>8</v>
       </c>
-    </row>
-    <row r="39" spans="1:22">
+      <c r="W38">
+        <v>0</v>
+      </c>
+      <c r="X38">
+        <v>1</v>
+      </c>
+      <c r="Y38">
+        <v>20</v>
+      </c>
+      <c r="Z38">
+        <v>1</v>
+      </c>
+      <c r="AA38">
+        <v>0</v>
+      </c>
+      <c r="AB38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:28">
       <c r="A39" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B39">
         <v>15344</v>
@@ -3149,10 +3851,28 @@
       <c r="V39">
         <v>76</v>
       </c>
-    </row>
-    <row r="40" spans="1:22">
+      <c r="W39">
+        <v>11</v>
+      </c>
+      <c r="X39">
+        <v>420</v>
+      </c>
+      <c r="Y39">
+        <v>1285</v>
+      </c>
+      <c r="Z39">
+        <v>107</v>
+      </c>
+      <c r="AA39">
+        <v>12</v>
+      </c>
+      <c r="AB39">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="40" spans="1:28">
       <c r="A40" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="B40">
         <v>237</v>
@@ -3217,10 +3937,28 @@
       <c r="V40">
         <v>4</v>
       </c>
-    </row>
-    <row r="41" spans="1:22">
+      <c r="W40">
+        <v>1</v>
+      </c>
+      <c r="X40">
+        <v>0</v>
+      </c>
+      <c r="Y40">
+        <v>3</v>
+      </c>
+      <c r="Z40">
+        <v>0</v>
+      </c>
+      <c r="AA40">
+        <v>0</v>
+      </c>
+      <c r="AB40">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:28">
       <c r="A41" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="B41">
         <v>1228</v>
@@ -3285,10 +4023,28 @@
       <c r="V41">
         <v>9</v>
       </c>
-    </row>
-    <row r="42" spans="1:22">
+      <c r="W41">
+        <v>6</v>
+      </c>
+      <c r="X41">
+        <v>4</v>
+      </c>
+      <c r="Y41">
+        <v>3</v>
+      </c>
+      <c r="Z41">
+        <v>3</v>
+      </c>
+      <c r="AA41">
+        <v>2</v>
+      </c>
+      <c r="AB41">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="42" spans="1:28">
       <c r="A42" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="B42">
         <v>32904</v>
@@ -3353,10 +4109,28 @@
       <c r="V42">
         <v>60</v>
       </c>
-    </row>
-    <row r="43" spans="1:22">
+      <c r="W42">
+        <v>33</v>
+      </c>
+      <c r="X42">
+        <v>162</v>
+      </c>
+      <c r="Y42">
+        <v>345</v>
+      </c>
+      <c r="Z42">
+        <v>47</v>
+      </c>
+      <c r="AA42">
+        <v>22</v>
+      </c>
+      <c r="AB42">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="43" spans="1:28">
       <c r="A43" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="B43">
         <v>139361</v>
@@ -3421,10 +4195,28 @@
       <c r="V43">
         <v>244</v>
       </c>
-    </row>
-    <row r="44" spans="1:22">
+      <c r="W43">
+        <v>88</v>
+      </c>
+      <c r="X43">
+        <v>1156</v>
+      </c>
+      <c r="Y43">
+        <v>3267</v>
+      </c>
+      <c r="Z43">
+        <v>209</v>
+      </c>
+      <c r="AA43">
+        <v>105</v>
+      </c>
+      <c r="AB43">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="44" spans="1:28">
       <c r="A44" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="B44">
         <v>1209</v>
@@ -3489,10 +4281,28 @@
       <c r="V44">
         <v>1</v>
       </c>
-    </row>
-    <row r="45" spans="1:22">
+      <c r="W44">
+        <v>2</v>
+      </c>
+      <c r="X44">
+        <v>5</v>
+      </c>
+      <c r="Y44">
+        <v>128</v>
+      </c>
+      <c r="Z44">
+        <v>2</v>
+      </c>
+      <c r="AA44">
+        <v>1</v>
+      </c>
+      <c r="AB44">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:28">
       <c r="A45" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="B45">
         <v>21214</v>
@@ -3557,10 +4367,28 @@
       <c r="V45">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="1:22">
+      <c r="W45">
+        <v>10</v>
+      </c>
+      <c r="X45">
+        <v>42</v>
+      </c>
+      <c r="Y45">
+        <v>133</v>
+      </c>
+      <c r="Z45">
+        <v>10</v>
+      </c>
+      <c r="AA45">
+        <v>28</v>
+      </c>
+      <c r="AB45">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="46" spans="1:28">
       <c r="A46" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B46">
         <v>210</v>
@@ -3625,10 +4453,28 @@
       <c r="V46">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:22">
+      <c r="W46">
+        <v>0</v>
+      </c>
+      <c r="X46">
+        <v>3</v>
+      </c>
+      <c r="Y46">
+        <v>3</v>
+      </c>
+      <c r="Z46">
+        <v>0</v>
+      </c>
+      <c r="AA46">
+        <v>1</v>
+      </c>
+      <c r="AB46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:28">
       <c r="A47" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="B47">
         <v>7398</v>
@@ -3693,10 +4539,28 @@
       <c r="V47">
         <v>21</v>
       </c>
-    </row>
-    <row r="48" spans="1:22">
+      <c r="W47">
+        <v>1</v>
+      </c>
+      <c r="X47">
+        <v>28</v>
+      </c>
+      <c r="Y47">
+        <v>35</v>
+      </c>
+      <c r="Z47">
+        <v>6</v>
+      </c>
+      <c r="AA47">
+        <v>5</v>
+      </c>
+      <c r="AB47">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="48" spans="1:28">
       <c r="A48" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="B48">
         <v>5281</v>
@@ -3761,10 +4625,28 @@
       <c r="V48">
         <v>5</v>
       </c>
-    </row>
-    <row r="49" spans="1:22">
+      <c r="W48">
+        <v>0</v>
+      </c>
+      <c r="X48">
+        <v>9</v>
+      </c>
+      <c r="Y48">
+        <v>25</v>
+      </c>
+      <c r="Z48">
+        <v>2</v>
+      </c>
+      <c r="AA48">
+        <v>28</v>
+      </c>
+      <c r="AB48">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49" spans="1:28">
       <c r="A49" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B49">
         <v>58191</v>
@@ -3829,10 +4711,28 @@
       <c r="V49">
         <v>139</v>
       </c>
-    </row>
-    <row r="50" spans="1:22">
+      <c r="W49">
+        <v>89</v>
+      </c>
+      <c r="X49">
+        <v>163</v>
+      </c>
+      <c r="Y49">
+        <v>213</v>
+      </c>
+      <c r="Z49">
+        <v>40</v>
+      </c>
+      <c r="AA49">
+        <v>118</v>
+      </c>
+      <c r="AB49">
+        <v>1412</v>
+      </c>
+    </row>
+    <row r="50" spans="1:28">
       <c r="A50" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B50">
         <v>297</v>
@@ -3897,10 +4797,28 @@
       <c r="V50">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:22">
+      <c r="W50">
+        <v>0</v>
+      </c>
+      <c r="X50">
+        <v>1</v>
+      </c>
+      <c r="Y50">
+        <v>3</v>
+      </c>
+      <c r="Z50">
+        <v>0</v>
+      </c>
+      <c r="AA50">
+        <v>0</v>
+      </c>
+      <c r="AB50">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="51" spans="1:28">
       <c r="A51" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B51">
         <v>482</v>
@@ -3965,10 +4883,28 @@
       <c r="V51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:22">
+      <c r="W51">
+        <v>0</v>
+      </c>
+      <c r="X51">
+        <v>2</v>
+      </c>
+      <c r="Y51">
+        <v>8</v>
+      </c>
+      <c r="Z51">
+        <v>0</v>
+      </c>
+      <c r="AA51">
+        <v>0</v>
+      </c>
+      <c r="AB51">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:28">
       <c r="A52" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B52">
         <v>798</v>
@@ -4033,10 +4969,28 @@
       <c r="V52">
         <v>1</v>
       </c>
-    </row>
-    <row r="53" spans="1:22">
+      <c r="W52">
+        <v>3</v>
+      </c>
+      <c r="X52">
+        <v>4</v>
+      </c>
+      <c r="Y52">
+        <v>13</v>
+      </c>
+      <c r="Z52">
+        <v>0</v>
+      </c>
+      <c r="AA52">
+        <v>4</v>
+      </c>
+      <c r="AB52">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53" spans="1:28">
       <c r="A53" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="B53">
         <v>5310</v>
@@ -4101,10 +5055,28 @@
       <c r="V53">
         <v>59</v>
       </c>
-    </row>
-    <row r="54" spans="1:22">
+      <c r="W53">
+        <v>4</v>
+      </c>
+      <c r="X53">
+        <v>0</v>
+      </c>
+      <c r="Y53">
+        <v>135</v>
+      </c>
+      <c r="Z53">
+        <v>4</v>
+      </c>
+      <c r="AA53">
+        <v>0</v>
+      </c>
+      <c r="AB53">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54" spans="1:28">
       <c r="A54" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="B54">
         <v>782</v>
@@ -4169,10 +5141,28 @@
       <c r="V54">
         <v>19</v>
       </c>
-    </row>
-    <row r="55" spans="1:22">
+      <c r="W54">
+        <v>0</v>
+      </c>
+      <c r="X54">
+        <v>1</v>
+      </c>
+      <c r="Y54">
+        <v>20</v>
+      </c>
+      <c r="Z54">
+        <v>1</v>
+      </c>
+      <c r="AA54">
+        <v>0</v>
+      </c>
+      <c r="AB54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:28">
       <c r="A55" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B55">
         <v>17120</v>
@@ -4237,10 +5227,28 @@
       <c r="V55">
         <v>70</v>
       </c>
-    </row>
-    <row r="56" spans="1:22">
+      <c r="W55">
+        <v>11</v>
+      </c>
+      <c r="X55">
+        <v>420</v>
+      </c>
+      <c r="Y55">
+        <v>1285</v>
+      </c>
+      <c r="Z55">
+        <v>107</v>
+      </c>
+      <c r="AA55">
+        <v>12</v>
+      </c>
+      <c r="AB55">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="56" spans="1:28">
       <c r="A56" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="B56">
         <v>325</v>
@@ -4305,10 +5313,28 @@
       <c r="V56">
         <v>8</v>
       </c>
-    </row>
-    <row r="57" spans="1:22">
+      <c r="W56">
+        <v>1</v>
+      </c>
+      <c r="X56">
+        <v>0</v>
+      </c>
+      <c r="Y56">
+        <v>3</v>
+      </c>
+      <c r="Z56">
+        <v>0</v>
+      </c>
+      <c r="AA56">
+        <v>0</v>
+      </c>
+      <c r="AB56">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:28">
       <c r="A57" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="B57">
         <v>1362</v>
@@ -4373,10 +5399,28 @@
       <c r="V57">
         <v>11</v>
       </c>
-    </row>
-    <row r="58" spans="1:22">
+      <c r="W57">
+        <v>6</v>
+      </c>
+      <c r="X57">
+        <v>4</v>
+      </c>
+      <c r="Y57">
+        <v>3</v>
+      </c>
+      <c r="Z57">
+        <v>3</v>
+      </c>
+      <c r="AA57">
+        <v>2</v>
+      </c>
+      <c r="AB57">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="58" spans="1:28">
       <c r="A58" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="B58">
         <v>36858</v>
@@ -4441,10 +5485,28 @@
       <c r="V58">
         <v>77</v>
       </c>
-    </row>
-    <row r="59" spans="1:22">
+      <c r="W58">
+        <v>33</v>
+      </c>
+      <c r="X58">
+        <v>162</v>
+      </c>
+      <c r="Y58">
+        <v>345</v>
+      </c>
+      <c r="Z58">
+        <v>47</v>
+      </c>
+      <c r="AA58">
+        <v>22</v>
+      </c>
+      <c r="AB58">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="59" spans="1:28">
       <c r="A59" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="B59">
         <v>157197</v>
@@ -4509,10 +5571,28 @@
       <c r="V59">
         <v>287</v>
       </c>
-    </row>
-    <row r="60" spans="1:22">
+      <c r="W59">
+        <v>88</v>
+      </c>
+      <c r="X59">
+        <v>1156</v>
+      </c>
+      <c r="Y59">
+        <v>3267</v>
+      </c>
+      <c r="Z59">
+        <v>209</v>
+      </c>
+      <c r="AA59">
+        <v>105</v>
+      </c>
+      <c r="AB59">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="60" spans="1:28">
       <c r="A60" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="B60">
         <v>1243</v>
@@ -4577,10 +5657,28 @@
       <c r="V60">
         <v>7</v>
       </c>
-    </row>
-    <row r="61" spans="1:22">
+      <c r="W60">
+        <v>2</v>
+      </c>
+      <c r="X60">
+        <v>5</v>
+      </c>
+      <c r="Y60">
+        <v>128</v>
+      </c>
+      <c r="Z60">
+        <v>2</v>
+      </c>
+      <c r="AA60">
+        <v>1</v>
+      </c>
+      <c r="AB60">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:28">
       <c r="A61" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="B61">
         <v>21022</v>
@@ -4645,10 +5743,28 @@
       <c r="V61">
         <v>7</v>
       </c>
-    </row>
-    <row r="62" spans="1:22">
+      <c r="W61">
+        <v>10</v>
+      </c>
+      <c r="X61">
+        <v>42</v>
+      </c>
+      <c r="Y61">
+        <v>133</v>
+      </c>
+      <c r="Z61">
+        <v>10</v>
+      </c>
+      <c r="AA61">
+        <v>28</v>
+      </c>
+      <c r="AB61">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="62" spans="1:28">
       <c r="A62" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B62">
         <v>250</v>
@@ -4713,10 +5829,28 @@
       <c r="V62">
         <v>2</v>
       </c>
-    </row>
-    <row r="63" spans="1:22">
+      <c r="W62">
+        <v>0</v>
+      </c>
+      <c r="X62">
+        <v>3</v>
+      </c>
+      <c r="Y62">
+        <v>3</v>
+      </c>
+      <c r="Z62">
+        <v>0</v>
+      </c>
+      <c r="AA62">
+        <v>1</v>
+      </c>
+      <c r="AB62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:28">
       <c r="A63" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="B63">
         <v>8350</v>
@@ -4781,10 +5915,28 @@
       <c r="V63">
         <v>45</v>
       </c>
-    </row>
-    <row r="64" spans="1:22">
+      <c r="W63">
+        <v>1</v>
+      </c>
+      <c r="X63">
+        <v>28</v>
+      </c>
+      <c r="Y63">
+        <v>35</v>
+      </c>
+      <c r="Z63">
+        <v>6</v>
+      </c>
+      <c r="AA63">
+        <v>5</v>
+      </c>
+      <c r="AB63">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="64" spans="1:28">
       <c r="A64" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="B64">
         <v>4847</v>
@@ -4849,10 +6001,28 @@
       <c r="V64">
         <v>5</v>
       </c>
-    </row>
-    <row r="65" spans="1:22">
+      <c r="W64">
+        <v>0</v>
+      </c>
+      <c r="X64">
+        <v>9</v>
+      </c>
+      <c r="Y64">
+        <v>25</v>
+      </c>
+      <c r="Z64">
+        <v>2</v>
+      </c>
+      <c r="AA64">
+        <v>28</v>
+      </c>
+      <c r="AB64">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65" spans="1:28">
       <c r="A65" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B65">
         <v>58146</v>
@@ -4917,10 +6087,28 @@
       <c r="V65">
         <v>150</v>
       </c>
-    </row>
-    <row r="66" spans="1:22">
+      <c r="W65">
+        <v>89</v>
+      </c>
+      <c r="X65">
+        <v>163</v>
+      </c>
+      <c r="Y65">
+        <v>213</v>
+      </c>
+      <c r="Z65">
+        <v>40</v>
+      </c>
+      <c r="AA65">
+        <v>118</v>
+      </c>
+      <c r="AB65">
+        <v>1412</v>
+      </c>
+    </row>
+    <row r="66" spans="1:28">
       <c r="A66" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B66">
         <v>309</v>
@@ -4985,10 +6173,28 @@
       <c r="V66">
         <v>1</v>
       </c>
-    </row>
-    <row r="67" spans="1:22">
+      <c r="W66">
+        <v>1</v>
+      </c>
+      <c r="X66">
+        <v>0</v>
+      </c>
+      <c r="Y66">
+        <v>8</v>
+      </c>
+      <c r="Z66">
+        <v>0</v>
+      </c>
+      <c r="AA66">
+        <v>0</v>
+      </c>
+      <c r="AB66">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67" spans="1:28">
       <c r="A67" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B67">
         <v>488</v>
@@ -5053,10 +6259,28 @@
       <c r="V67">
         <v>1</v>
       </c>
-    </row>
-    <row r="68" spans="1:22">
+      <c r="W67">
+        <v>2</v>
+      </c>
+      <c r="X67">
+        <v>2</v>
+      </c>
+      <c r="Y67">
+        <v>9</v>
+      </c>
+      <c r="Z67">
+        <v>2</v>
+      </c>
+      <c r="AA67">
+        <v>1</v>
+      </c>
+      <c r="AB67">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:28">
       <c r="A68" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B68">
         <v>821</v>
@@ -5121,10 +6345,28 @@
       <c r="V68">
         <v>3</v>
       </c>
-    </row>
-    <row r="69" spans="1:22">
+      <c r="W68">
+        <v>1</v>
+      </c>
+      <c r="X68">
+        <v>3</v>
+      </c>
+      <c r="Y68">
+        <v>11</v>
+      </c>
+      <c r="Z68">
+        <v>1</v>
+      </c>
+      <c r="AA68">
+        <v>15</v>
+      </c>
+      <c r="AB68">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69" spans="1:28">
       <c r="A69" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="B69">
         <v>5293</v>
@@ -5189,10 +6431,28 @@
       <c r="V69">
         <v>62</v>
       </c>
-    </row>
-    <row r="70" spans="1:22">
+      <c r="W69">
+        <v>3</v>
+      </c>
+      <c r="X69">
+        <v>2</v>
+      </c>
+      <c r="Y69">
+        <v>130</v>
+      </c>
+      <c r="Z69">
+        <v>6</v>
+      </c>
+      <c r="AA69">
+        <v>0</v>
+      </c>
+      <c r="AB69">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="70" spans="1:28">
       <c r="A70" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="B70">
         <v>776</v>
@@ -5257,10 +6517,28 @@
       <c r="V70">
         <v>13</v>
       </c>
-    </row>
-    <row r="71" spans="1:22">
+      <c r="W70">
+        <v>0</v>
+      </c>
+      <c r="X70">
+        <v>0</v>
+      </c>
+      <c r="Y70">
+        <v>51</v>
+      </c>
+      <c r="Z70">
+        <v>0</v>
+      </c>
+      <c r="AA70">
+        <v>0</v>
+      </c>
+      <c r="AB70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:28">
       <c r="A71" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B71">
         <v>17053</v>
@@ -5325,10 +6603,28 @@
       <c r="V71">
         <v>84</v>
       </c>
-    </row>
-    <row r="72" spans="1:22">
+      <c r="W71">
+        <v>12</v>
+      </c>
+      <c r="X71">
+        <v>432</v>
+      </c>
+      <c r="Y71">
+        <v>1260</v>
+      </c>
+      <c r="Z71">
+        <v>98</v>
+      </c>
+      <c r="AA71">
+        <v>11</v>
+      </c>
+      <c r="AB71">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="72" spans="1:28">
       <c r="A72" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="B72">
         <v>356</v>
@@ -5393,10 +6689,28 @@
       <c r="V72">
         <v>8</v>
       </c>
-    </row>
-    <row r="73" spans="1:22">
+      <c r="W72">
+        <v>0</v>
+      </c>
+      <c r="X72">
+        <v>1</v>
+      </c>
+      <c r="Y72">
+        <v>15</v>
+      </c>
+      <c r="Z72">
+        <v>0</v>
+      </c>
+      <c r="AA72">
+        <v>0</v>
+      </c>
+      <c r="AB72">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:28">
       <c r="A73" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="B73">
         <v>1691</v>
@@ -5461,10 +6775,28 @@
       <c r="V73">
         <v>18</v>
       </c>
-    </row>
-    <row r="74" spans="1:22">
+      <c r="W73">
+        <v>13</v>
+      </c>
+      <c r="X73">
+        <v>4</v>
+      </c>
+      <c r="Y73">
+        <v>6</v>
+      </c>
+      <c r="Z73">
+        <v>0</v>
+      </c>
+      <c r="AA73">
+        <v>4</v>
+      </c>
+      <c r="AB73">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="74" spans="1:28">
       <c r="A74" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="B74">
         <v>39766</v>
@@ -5529,10 +6861,28 @@
       <c r="V74">
         <v>75</v>
       </c>
-    </row>
-    <row r="75" spans="1:22">
+      <c r="W74">
+        <v>42</v>
+      </c>
+      <c r="X74">
+        <v>174</v>
+      </c>
+      <c r="Y74">
+        <v>306</v>
+      </c>
+      <c r="Z74">
+        <v>65</v>
+      </c>
+      <c r="AA74">
+        <v>22</v>
+      </c>
+      <c r="AB74">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="75" spans="1:28">
       <c r="A75" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="B75">
         <v>159266</v>
@@ -5597,10 +6947,28 @@
       <c r="V75">
         <v>273</v>
       </c>
-    </row>
-    <row r="76" spans="1:22">
+      <c r="W75">
+        <v>81</v>
+      </c>
+      <c r="X75">
+        <v>1166</v>
+      </c>
+      <c r="Y75">
+        <v>3381</v>
+      </c>
+      <c r="Z75">
+        <v>166</v>
+      </c>
+      <c r="AA75">
+        <v>109</v>
+      </c>
+      <c r="AB75">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="76" spans="1:28">
       <c r="A76" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="B76">
         <v>1207</v>
@@ -5665,10 +7033,28 @@
       <c r="V76">
         <v>1</v>
       </c>
-    </row>
-    <row r="77" spans="1:22">
+      <c r="W76">
+        <v>2</v>
+      </c>
+      <c r="X76">
+        <v>6</v>
+      </c>
+      <c r="Y76">
+        <v>117</v>
+      </c>
+      <c r="Z76">
+        <v>2</v>
+      </c>
+      <c r="AA76">
+        <v>1</v>
+      </c>
+      <c r="AB76">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:28">
       <c r="A77" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="B77">
         <v>17200</v>
@@ -5733,10 +7119,28 @@
       <c r="V77">
         <v>6</v>
       </c>
-    </row>
-    <row r="78" spans="1:22">
+      <c r="W77">
+        <v>9</v>
+      </c>
+      <c r="X77">
+        <v>45</v>
+      </c>
+      <c r="Y77">
+        <v>114</v>
+      </c>
+      <c r="Z77">
+        <v>14</v>
+      </c>
+      <c r="AA77">
+        <v>20</v>
+      </c>
+      <c r="AB77">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="78" spans="1:28">
       <c r="A78" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B78">
         <v>187</v>
@@ -5801,10 +7205,28 @@
       <c r="V78">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="1:22">
+      <c r="W78">
+        <v>0</v>
+      </c>
+      <c r="X78">
+        <v>5</v>
+      </c>
+      <c r="Y78">
+        <v>4</v>
+      </c>
+      <c r="Z78">
+        <v>0</v>
+      </c>
+      <c r="AA78">
+        <v>0</v>
+      </c>
+      <c r="AB78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:28">
       <c r="A79" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="B79">
         <v>9204</v>
@@ -5869,10 +7291,28 @@
       <c r="V79">
         <v>29</v>
       </c>
-    </row>
-    <row r="80" spans="1:22">
+      <c r="W79">
+        <v>6</v>
+      </c>
+      <c r="X79">
+        <v>26</v>
+      </c>
+      <c r="Y79">
+        <v>30</v>
+      </c>
+      <c r="Z79">
+        <v>12</v>
+      </c>
+      <c r="AA79">
+        <v>5</v>
+      </c>
+      <c r="AB79">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="80" spans="1:28">
       <c r="A80" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="B80">
         <v>4096</v>
@@ -5937,10 +7377,28 @@
       <c r="V80">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="1:22">
+      <c r="W80">
+        <v>0</v>
+      </c>
+      <c r="X80">
+        <v>17</v>
+      </c>
+      <c r="Y80">
+        <v>24</v>
+      </c>
+      <c r="Z80">
+        <v>2</v>
+      </c>
+      <c r="AA80">
+        <v>40</v>
+      </c>
+      <c r="AB80">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="81" spans="1:28">
       <c r="A81" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B81">
         <v>56684</v>
@@ -6005,10 +7463,28 @@
       <c r="V81">
         <v>145</v>
       </c>
-    </row>
-    <row r="82" spans="1:22">
+      <c r="W81">
+        <v>79</v>
+      </c>
+      <c r="X81">
+        <v>162</v>
+      </c>
+      <c r="Y81">
+        <v>190</v>
+      </c>
+      <c r="Z81">
+        <v>34</v>
+      </c>
+      <c r="AA81">
+        <v>100</v>
+      </c>
+      <c r="AB81">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="82" spans="1:28">
       <c r="A82" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B82">
         <v>301</v>
@@ -6073,10 +7549,28 @@
       <c r="V82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:22">
+      <c r="W82">
+        <v>1</v>
+      </c>
+      <c r="X82">
+        <v>0</v>
+      </c>
+      <c r="Y82">
+        <v>3</v>
+      </c>
+      <c r="Z82">
+        <v>0</v>
+      </c>
+      <c r="AA82">
+        <v>0</v>
+      </c>
+      <c r="AB82">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="83" spans="1:28">
       <c r="A83" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B83">
         <v>524</v>
@@ -6141,10 +7635,28 @@
       <c r="V83">
         <v>1</v>
       </c>
-    </row>
-    <row r="84" spans="1:22">
+      <c r="W83">
+        <v>1</v>
+      </c>
+      <c r="X83">
+        <v>1</v>
+      </c>
+      <c r="Y83">
+        <v>4</v>
+      </c>
+      <c r="Z83">
+        <v>0</v>
+      </c>
+      <c r="AA83">
+        <v>1</v>
+      </c>
+      <c r="AB83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:28">
       <c r="A84" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B84">
         <v>967</v>
@@ -6209,10 +7721,28 @@
       <c r="V84">
         <v>4</v>
       </c>
-    </row>
-    <row r="85" spans="1:22">
+      <c r="W84">
+        <v>1</v>
+      </c>
+      <c r="X84">
+        <v>2</v>
+      </c>
+      <c r="Y84">
+        <v>15</v>
+      </c>
+      <c r="Z84">
+        <v>1</v>
+      </c>
+      <c r="AA84">
+        <v>10</v>
+      </c>
+      <c r="AB84">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="85" spans="1:28">
       <c r="A85" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="B85">
         <v>5223</v>
@@ -6277,10 +7807,28 @@
       <c r="V85">
         <v>47</v>
       </c>
-    </row>
-    <row r="86" spans="1:22">
+      <c r="W85">
+        <v>2</v>
+      </c>
+      <c r="X85">
+        <v>3</v>
+      </c>
+      <c r="Y85">
+        <v>115</v>
+      </c>
+      <c r="Z85">
+        <v>0</v>
+      </c>
+      <c r="AA85">
+        <v>1</v>
+      </c>
+      <c r="AB85">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="86" spans="1:28">
       <c r="A86" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="B86">
         <v>636</v>
@@ -6345,10 +7893,28 @@
       <c r="V86">
         <v>11</v>
       </c>
-    </row>
-    <row r="87" spans="1:22">
+      <c r="W86">
+        <v>0</v>
+      </c>
+      <c r="X86">
+        <v>1</v>
+      </c>
+      <c r="Y86">
+        <v>22</v>
+      </c>
+      <c r="Z86">
+        <v>0</v>
+      </c>
+      <c r="AA86">
+        <v>0</v>
+      </c>
+      <c r="AB86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:28">
       <c r="A87" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B87">
         <v>17947</v>
@@ -6413,10 +7979,28 @@
       <c r="V87">
         <v>61</v>
       </c>
-    </row>
-    <row r="88" spans="1:22">
+      <c r="W87">
+        <v>14</v>
+      </c>
+      <c r="X87">
+        <v>359</v>
+      </c>
+      <c r="Y87">
+        <v>972</v>
+      </c>
+      <c r="Z87">
+        <v>72</v>
+      </c>
+      <c r="AA87">
+        <v>11</v>
+      </c>
+      <c r="AB87">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="88" spans="1:28">
       <c r="A88" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="B88">
         <v>304</v>
@@ -6481,10 +8065,28 @@
       <c r="V88">
         <v>8</v>
       </c>
-    </row>
-    <row r="89" spans="1:22">
+      <c r="W88">
+        <v>0</v>
+      </c>
+      <c r="X88">
+        <v>0</v>
+      </c>
+      <c r="Y88">
+        <v>9</v>
+      </c>
+      <c r="Z88">
+        <v>1</v>
+      </c>
+      <c r="AA88">
+        <v>0</v>
+      </c>
+      <c r="AB88">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="89" spans="1:28">
       <c r="A89" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="B89">
         <v>1372</v>
@@ -6549,10 +8151,28 @@
       <c r="V89">
         <v>6</v>
       </c>
-    </row>
-    <row r="90" spans="1:22">
+      <c r="W89">
+        <v>14</v>
+      </c>
+      <c r="X89">
+        <v>1</v>
+      </c>
+      <c r="Y89">
+        <v>3</v>
+      </c>
+      <c r="Z89">
+        <v>1</v>
+      </c>
+      <c r="AA89">
+        <v>4</v>
+      </c>
+      <c r="AB89">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="90" spans="1:28">
       <c r="A90" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="B90">
         <v>44611</v>
@@ -6617,10 +8237,28 @@
       <c r="V90">
         <v>40</v>
       </c>
-    </row>
-    <row r="91" spans="1:22">
+      <c r="W90">
+        <v>30</v>
+      </c>
+      <c r="X90">
+        <v>134</v>
+      </c>
+      <c r="Y90">
+        <v>222</v>
+      </c>
+      <c r="Z90">
+        <v>45</v>
+      </c>
+      <c r="AA90">
+        <v>14</v>
+      </c>
+      <c r="AB90">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="91" spans="1:28">
       <c r="A91" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="B91">
         <v>159641</v>
@@ -6685,10 +8323,28 @@
       <c r="V91">
         <v>107</v>
       </c>
-    </row>
-    <row r="92" spans="1:22">
+      <c r="W91">
+        <v>55</v>
+      </c>
+      <c r="X91">
+        <v>524</v>
+      </c>
+      <c r="Y91">
+        <v>1357</v>
+      </c>
+      <c r="Z91">
+        <v>101</v>
+      </c>
+      <c r="AA91">
+        <v>54</v>
+      </c>
+      <c r="AB91">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="92" spans="1:28">
       <c r="A92" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="B92">
         <v>1439</v>
@@ -6753,10 +8409,28 @@
       <c r="V92">
         <v>2</v>
       </c>
-    </row>
-    <row r="93" spans="1:22">
+      <c r="W92">
+        <v>3</v>
+      </c>
+      <c r="X92">
+        <v>4</v>
+      </c>
+      <c r="Y92">
+        <v>74</v>
+      </c>
+      <c r="Z92">
+        <v>0</v>
+      </c>
+      <c r="AA92">
+        <v>0</v>
+      </c>
+      <c r="AB92">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="93" spans="1:28">
       <c r="A93" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="B93">
         <v>15499</v>
@@ -6821,10 +8495,28 @@
       <c r="V93">
         <v>2</v>
       </c>
-    </row>
-    <row r="94" spans="1:22">
+      <c r="W93">
+        <v>8</v>
+      </c>
+      <c r="X93">
+        <v>20</v>
+      </c>
+      <c r="Y93">
+        <v>56</v>
+      </c>
+      <c r="Z93">
+        <v>7</v>
+      </c>
+      <c r="AA93">
+        <v>13</v>
+      </c>
+      <c r="AB93">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="94" spans="1:28">
       <c r="A94" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B94">
         <v>206</v>
@@ -6889,10 +8581,28 @@
       <c r="V94">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="1:22">
+      <c r="W94">
+        <v>0</v>
+      </c>
+      <c r="X94">
+        <v>4</v>
+      </c>
+      <c r="Y94">
+        <v>1</v>
+      </c>
+      <c r="Z94">
+        <v>0</v>
+      </c>
+      <c r="AA94">
+        <v>0</v>
+      </c>
+      <c r="AB94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:28">
       <c r="A95" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="B95">
         <v>11255</v>
@@ -6957,10 +8667,28 @@
       <c r="V95">
         <v>24</v>
       </c>
-    </row>
-    <row r="96" spans="1:22">
+      <c r="W95">
+        <v>8</v>
+      </c>
+      <c r="X95">
+        <v>20</v>
+      </c>
+      <c r="Y95">
+        <v>28</v>
+      </c>
+      <c r="Z95">
+        <v>5</v>
+      </c>
+      <c r="AA95">
+        <v>9</v>
+      </c>
+      <c r="AB95">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="96" spans="1:28">
       <c r="A96" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="B96">
         <v>4152</v>
@@ -7025,10 +8753,28 @@
       <c r="V96">
         <v>3</v>
       </c>
-    </row>
-    <row r="97" spans="1:22">
+      <c r="W96">
+        <v>4</v>
+      </c>
+      <c r="X96">
+        <v>12</v>
+      </c>
+      <c r="Y96">
+        <v>23</v>
+      </c>
+      <c r="Z96">
+        <v>3</v>
+      </c>
+      <c r="AA96">
+        <v>22</v>
+      </c>
+      <c r="AB96">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="97" spans="1:28">
       <c r="A97" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B97">
         <v>56283</v>
@@ -7093,10 +8839,28 @@
       <c r="V97">
         <v>33</v>
       </c>
-    </row>
-    <row r="98" spans="1:22">
+      <c r="W97">
+        <v>68</v>
+      </c>
+      <c r="X97">
+        <v>82</v>
+      </c>
+      <c r="Y97">
+        <v>78</v>
+      </c>
+      <c r="Z97">
+        <v>21</v>
+      </c>
+      <c r="AA97">
+        <v>67</v>
+      </c>
+      <c r="AB97">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="98" spans="1:28">
       <c r="A98" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B98">
         <v>356</v>
@@ -7161,10 +8925,28 @@
       <c r="V98">
         <v>1</v>
       </c>
-    </row>
-    <row r="99" spans="1:22">
+      <c r="W98">
+        <v>0</v>
+      </c>
+      <c r="X98">
+        <v>0</v>
+      </c>
+      <c r="Y98">
+        <v>8</v>
+      </c>
+      <c r="Z98">
+        <v>0</v>
+      </c>
+      <c r="AA98">
+        <v>0</v>
+      </c>
+      <c r="AB98">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="99" spans="1:28">
       <c r="A99" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B99">
         <v>558</v>
@@ -7229,10 +9011,28 @@
       <c r="V99">
         <v>1</v>
       </c>
-    </row>
-    <row r="100" spans="1:22">
+      <c r="W99">
+        <v>2</v>
+      </c>
+      <c r="X99">
+        <v>2</v>
+      </c>
+      <c r="Y99">
+        <v>5</v>
+      </c>
+      <c r="Z99">
+        <v>0</v>
+      </c>
+      <c r="AA99">
+        <v>1</v>
+      </c>
+      <c r="AB99">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="100" spans="1:28">
       <c r="A100" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B100">
         <v>1149</v>
@@ -7297,10 +9097,28 @@
       <c r="V100">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="1:22">
+      <c r="W100">
+        <v>1</v>
+      </c>
+      <c r="X100">
+        <v>1</v>
+      </c>
+      <c r="Y100">
+        <v>22</v>
+      </c>
+      <c r="Z100">
+        <v>0</v>
+      </c>
+      <c r="AA100">
+        <v>3</v>
+      </c>
+      <c r="AB100">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="101" spans="1:28">
       <c r="A101" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="B101">
         <v>5155</v>
@@ -7365,10 +9183,28 @@
       <c r="V101">
         <v>56</v>
       </c>
-    </row>
-    <row r="102" spans="1:22">
+      <c r="W101">
+        <v>6</v>
+      </c>
+      <c r="X101">
+        <v>1</v>
+      </c>
+      <c r="Y101">
+        <v>135</v>
+      </c>
+      <c r="Z101">
+        <v>4</v>
+      </c>
+      <c r="AA101">
+        <v>0</v>
+      </c>
+      <c r="AB101">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="102" spans="1:28">
       <c r="A102" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="B102">
         <v>583</v>
@@ -7433,10 +9269,28 @@
       <c r="V102">
         <v>33</v>
       </c>
-    </row>
-    <row r="103" spans="1:22">
+      <c r="W102">
+        <v>0</v>
+      </c>
+      <c r="X102">
+        <v>0</v>
+      </c>
+      <c r="Y102">
+        <v>16</v>
+      </c>
+      <c r="Z102">
+        <v>0</v>
+      </c>
+      <c r="AA102">
+        <v>0</v>
+      </c>
+      <c r="AB102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:28">
       <c r="A103" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B103">
         <v>16054</v>
@@ -7501,10 +9355,28 @@
       <c r="V103">
         <v>66</v>
       </c>
-    </row>
-    <row r="104" spans="1:22">
+      <c r="W103">
+        <v>7</v>
+      </c>
+      <c r="X103">
+        <v>293</v>
+      </c>
+      <c r="Y103">
+        <v>957</v>
+      </c>
+      <c r="Z103">
+        <v>53</v>
+      </c>
+      <c r="AA103">
+        <v>13</v>
+      </c>
+      <c r="AB103">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="104" spans="1:28">
       <c r="A104" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="B104">
         <v>408</v>
@@ -7569,10 +9441,28 @@
       <c r="V104">
         <v>5</v>
       </c>
-    </row>
-    <row r="105" spans="1:22">
+      <c r="W104">
+        <v>0</v>
+      </c>
+      <c r="X104">
+        <v>0</v>
+      </c>
+      <c r="Y104">
+        <v>10</v>
+      </c>
+      <c r="Z104">
+        <v>0</v>
+      </c>
+      <c r="AA104">
+        <v>0</v>
+      </c>
+      <c r="AB104">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="105" spans="1:28">
       <c r="A105" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="B105">
         <v>1502</v>
@@ -7637,10 +9527,28 @@
       <c r="V105">
         <v>4</v>
       </c>
-    </row>
-    <row r="106" spans="1:22">
+      <c r="W105">
+        <v>10</v>
+      </c>
+      <c r="X105">
+        <v>2</v>
+      </c>
+      <c r="Y105">
+        <v>4</v>
+      </c>
+      <c r="Z105">
+        <v>0</v>
+      </c>
+      <c r="AA105">
+        <v>2</v>
+      </c>
+      <c r="AB105">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="106" spans="1:28">
       <c r="A106" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="B106">
         <v>50028</v>
@@ -7705,10 +9613,28 @@
       <c r="V106">
         <v>54</v>
       </c>
-    </row>
-    <row r="107" spans="1:22">
+      <c r="W106">
+        <v>33</v>
+      </c>
+      <c r="X106">
+        <v>131</v>
+      </c>
+      <c r="Y106">
+        <v>233</v>
+      </c>
+      <c r="Z106">
+        <v>42</v>
+      </c>
+      <c r="AA106">
+        <v>17</v>
+      </c>
+      <c r="AB106">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="107" spans="1:28">
       <c r="A107" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="B107">
         <v>165803</v>
@@ -7773,10 +9699,28 @@
       <c r="V107">
         <v>101</v>
       </c>
-    </row>
-    <row r="108" spans="1:22">
+      <c r="W107">
+        <v>37</v>
+      </c>
+      <c r="X107">
+        <v>446</v>
+      </c>
+      <c r="Y107">
+        <v>1182</v>
+      </c>
+      <c r="Z107">
+        <v>96</v>
+      </c>
+      <c r="AA107">
+        <v>72</v>
+      </c>
+      <c r="AB107">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="108" spans="1:28">
       <c r="A108" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="B108">
         <v>1318</v>
@@ -7841,10 +9785,28 @@
       <c r="V108">
         <v>1</v>
       </c>
-    </row>
-    <row r="109" spans="1:22">
+      <c r="W108">
+        <v>2</v>
+      </c>
+      <c r="X108">
+        <v>1</v>
+      </c>
+      <c r="Y108">
+        <v>82</v>
+      </c>
+      <c r="Z108">
+        <v>1</v>
+      </c>
+      <c r="AA108">
+        <v>1</v>
+      </c>
+      <c r="AB108">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="109" spans="1:28">
       <c r="A109" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="B109">
         <v>15870</v>
@@ -7909,10 +9871,28 @@
       <c r="V109">
         <v>2</v>
       </c>
-    </row>
-    <row r="110" spans="1:22">
+      <c r="W109">
+        <v>5</v>
+      </c>
+      <c r="X109">
+        <v>14</v>
+      </c>
+      <c r="Y109">
+        <v>55</v>
+      </c>
+      <c r="Z109">
+        <v>3</v>
+      </c>
+      <c r="AA109">
+        <v>8</v>
+      </c>
+      <c r="AB109">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="110" spans="1:28">
       <c r="A110" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B110">
         <v>201</v>
@@ -7977,10 +9957,28 @@
       <c r="V110">
         <v>1</v>
       </c>
-    </row>
-    <row r="111" spans="1:22">
+      <c r="W110">
+        <v>0</v>
+      </c>
+      <c r="X110">
+        <v>1</v>
+      </c>
+      <c r="Y110">
+        <v>4</v>
+      </c>
+      <c r="Z110">
+        <v>0</v>
+      </c>
+      <c r="AA110">
+        <v>0</v>
+      </c>
+      <c r="AB110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:28">
       <c r="A111" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="B111">
         <v>13302</v>
@@ -8045,10 +10043,28 @@
       <c r="V111">
         <v>28</v>
       </c>
-    </row>
-    <row r="112" spans="1:22">
+      <c r="W111">
+        <v>4</v>
+      </c>
+      <c r="X111">
+        <v>25</v>
+      </c>
+      <c r="Y111">
+        <v>24</v>
+      </c>
+      <c r="Z111">
+        <v>15</v>
+      </c>
+      <c r="AA111">
+        <v>3</v>
+      </c>
+      <c r="AB111">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="112" spans="1:28">
       <c r="A112" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="B112">
         <v>3745</v>
@@ -8113,10 +10129,28 @@
       <c r="V112">
         <v>2</v>
       </c>
-    </row>
-    <row r="113" spans="1:22">
+      <c r="W112">
+        <v>2</v>
+      </c>
+      <c r="X112">
+        <v>9</v>
+      </c>
+      <c r="Y112">
+        <v>14</v>
+      </c>
+      <c r="Z112">
+        <v>2</v>
+      </c>
+      <c r="AA112">
+        <v>31</v>
+      </c>
+      <c r="AB112">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="113" spans="1:28">
       <c r="A113" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B113">
         <v>59127</v>
@@ -8181,10 +10215,28 @@
       <c r="V113">
         <v>43</v>
       </c>
-    </row>
-    <row r="114" spans="1:22">
+      <c r="W113">
+        <v>62</v>
+      </c>
+      <c r="X113">
+        <v>84</v>
+      </c>
+      <c r="Y113">
+        <v>81</v>
+      </c>
+      <c r="Z113">
+        <v>23</v>
+      </c>
+      <c r="AA113">
+        <v>67</v>
+      </c>
+      <c r="AB113">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="114" spans="1:28">
       <c r="A114" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B114">
         <v>365</v>
@@ -8249,10 +10301,28 @@
       <c r="V114">
         <v>0</v>
       </c>
-    </row>
-    <row r="115" spans="1:22">
+      <c r="W114">
+        <v>0</v>
+      </c>
+      <c r="X114">
+        <v>0</v>
+      </c>
+      <c r="Y114">
+        <v>6</v>
+      </c>
+      <c r="Z114">
+        <v>0</v>
+      </c>
+      <c r="AA114">
+        <v>0</v>
+      </c>
+      <c r="AB114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:28">
       <c r="A115" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B115">
         <v>564</v>
@@ -8317,10 +10387,28 @@
       <c r="V115">
         <v>2</v>
       </c>
-    </row>
-    <row r="116" spans="1:22">
+      <c r="W115">
+        <v>1</v>
+      </c>
+      <c r="X115">
+        <v>1</v>
+      </c>
+      <c r="Y115">
+        <v>9</v>
+      </c>
+      <c r="Z115">
+        <v>0</v>
+      </c>
+      <c r="AA115">
+        <v>0</v>
+      </c>
+      <c r="AB115">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="116" spans="1:28">
       <c r="A116" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B116">
         <v>1446</v>
@@ -8385,10 +10473,28 @@
       <c r="V116">
         <v>4</v>
       </c>
-    </row>
-    <row r="117" spans="1:22">
+      <c r="W116">
+        <v>1</v>
+      </c>
+      <c r="X116">
+        <v>2</v>
+      </c>
+      <c r="Y116">
+        <v>23</v>
+      </c>
+      <c r="Z116">
+        <v>0</v>
+      </c>
+      <c r="AA116">
+        <v>16</v>
+      </c>
+      <c r="AB116">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="117" spans="1:28">
       <c r="A117" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="B117">
         <v>5151</v>
@@ -8453,10 +10559,28 @@
       <c r="V117">
         <v>46</v>
       </c>
-    </row>
-    <row r="118" spans="1:22">
+      <c r="W117">
+        <v>5</v>
+      </c>
+      <c r="X117">
+        <v>2</v>
+      </c>
+      <c r="Y117">
+        <v>124</v>
+      </c>
+      <c r="Z117">
+        <v>1</v>
+      </c>
+      <c r="AA117">
+        <v>1</v>
+      </c>
+      <c r="AB117">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="118" spans="1:28">
       <c r="A118" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="B118">
         <v>518</v>
@@ -8521,10 +10645,28 @@
       <c r="V118">
         <v>18</v>
       </c>
-    </row>
-    <row r="119" spans="1:22">
+      <c r="W118">
+        <v>0</v>
+      </c>
+      <c r="X118">
+        <v>1</v>
+      </c>
+      <c r="Y118">
+        <v>12</v>
+      </c>
+      <c r="Z118">
+        <v>0</v>
+      </c>
+      <c r="AA118">
+        <v>0</v>
+      </c>
+      <c r="AB118">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="119" spans="1:28">
       <c r="A119" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B119">
         <v>15059</v>
@@ -8589,10 +10731,28 @@
       <c r="V119">
         <v>72</v>
       </c>
-    </row>
-    <row r="120" spans="1:22">
+      <c r="W119">
+        <v>7</v>
+      </c>
+      <c r="X119">
+        <v>270</v>
+      </c>
+      <c r="Y119">
+        <v>793</v>
+      </c>
+      <c r="Z119">
+        <v>51</v>
+      </c>
+      <c r="AA119">
+        <v>8</v>
+      </c>
+      <c r="AB119">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="120" spans="1:28">
       <c r="A120" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="B120">
         <v>558</v>
@@ -8657,10 +10817,28 @@
       <c r="V120">
         <v>14</v>
       </c>
-    </row>
-    <row r="121" spans="1:22">
+      <c r="W120">
+        <v>1</v>
+      </c>
+      <c r="X120">
+        <v>0</v>
+      </c>
+      <c r="Y120">
+        <v>9</v>
+      </c>
+      <c r="Z120">
+        <v>1</v>
+      </c>
+      <c r="AA120">
+        <v>0</v>
+      </c>
+      <c r="AB120">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:28">
       <c r="A121" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="B121">
         <v>1673</v>
@@ -8725,10 +10903,28 @@
       <c r="V121">
         <v>2</v>
       </c>
-    </row>
-    <row r="122" spans="1:22">
+      <c r="W121">
+        <v>18</v>
+      </c>
+      <c r="X121">
+        <v>8</v>
+      </c>
+      <c r="Y121">
+        <v>0</v>
+      </c>
+      <c r="Z121">
+        <v>0</v>
+      </c>
+      <c r="AA121">
+        <v>6</v>
+      </c>
+      <c r="AB121">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="122" spans="1:28">
       <c r="A122" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="B122">
         <v>48005</v>
@@ -8793,10 +10989,28 @@
       <c r="V122">
         <v>53</v>
       </c>
-    </row>
-    <row r="123" spans="1:22">
+      <c r="W122">
+        <v>30</v>
+      </c>
+      <c r="X122">
+        <v>128</v>
+      </c>
+      <c r="Y122">
+        <v>246</v>
+      </c>
+      <c r="Z122">
+        <v>31</v>
+      </c>
+      <c r="AA122">
+        <v>24</v>
+      </c>
+      <c r="AB122">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="123" spans="1:28">
       <c r="A123" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="B123">
         <v>149278</v>
@@ -8861,10 +11075,28 @@
       <c r="V123">
         <v>66</v>
       </c>
-    </row>
-    <row r="124" spans="1:22">
+      <c r="W123">
+        <v>50</v>
+      </c>
+      <c r="X123">
+        <v>433</v>
+      </c>
+      <c r="Y123">
+        <v>1108</v>
+      </c>
+      <c r="Z123">
+        <v>79</v>
+      </c>
+      <c r="AA123">
+        <v>67</v>
+      </c>
+      <c r="AB123">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="124" spans="1:28">
       <c r="A124" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="B124">
         <v>1028</v>
@@ -8929,10 +11161,28 @@
       <c r="V124">
         <v>2</v>
       </c>
-    </row>
-    <row r="125" spans="1:22">
+      <c r="W124">
+        <v>2</v>
+      </c>
+      <c r="X124">
+        <v>3</v>
+      </c>
+      <c r="Y124">
+        <v>56</v>
+      </c>
+      <c r="Z124">
+        <v>3</v>
+      </c>
+      <c r="AA124">
+        <v>1</v>
+      </c>
+      <c r="AB124">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="125" spans="1:28">
       <c r="A125" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="B125">
         <v>9187</v>
@@ -8997,10 +11247,28 @@
       <c r="V125">
         <v>0</v>
       </c>
-    </row>
-    <row r="126" spans="1:22">
+      <c r="W125">
+        <v>2</v>
+      </c>
+      <c r="X125">
+        <v>11</v>
+      </c>
+      <c r="Y125">
+        <v>43</v>
+      </c>
+      <c r="Z125">
+        <v>5</v>
+      </c>
+      <c r="AA125">
+        <v>9</v>
+      </c>
+      <c r="AB125">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="126" spans="1:28">
       <c r="A126" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B126">
         <v>190</v>
@@ -9065,10 +11333,28 @@
       <c r="V126">
         <v>0</v>
       </c>
-    </row>
-    <row r="127" spans="1:22">
+      <c r="W126">
+        <v>0</v>
+      </c>
+      <c r="X126">
+        <v>5</v>
+      </c>
+      <c r="Y126">
+        <v>5</v>
+      </c>
+      <c r="Z126">
+        <v>0</v>
+      </c>
+      <c r="AA126">
+        <v>0</v>
+      </c>
+      <c r="AB126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:28">
       <c r="A127" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="B127">
         <v>35686</v>
@@ -9133,10 +11419,28 @@
       <c r="V127">
         <v>44</v>
       </c>
-    </row>
-    <row r="128" spans="1:22">
+      <c r="W127">
+        <v>25</v>
+      </c>
+      <c r="X127">
+        <v>37</v>
+      </c>
+      <c r="Y127">
+        <v>86</v>
+      </c>
+      <c r="Z127">
+        <v>15</v>
+      </c>
+      <c r="AA127">
+        <v>29</v>
+      </c>
+      <c r="AB127">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="128" spans="1:28">
       <c r="A128" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="B128">
         <v>3596</v>
@@ -9201,10 +11505,28 @@
       <c r="V128">
         <v>2</v>
       </c>
-    </row>
-    <row r="129" spans="1:22">
+      <c r="W128">
+        <v>0</v>
+      </c>
+      <c r="X128">
+        <v>10</v>
+      </c>
+      <c r="Y128">
+        <v>12</v>
+      </c>
+      <c r="Z128">
+        <v>6</v>
+      </c>
+      <c r="AA128">
+        <v>42</v>
+      </c>
+      <c r="AB128">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="129" spans="1:28">
       <c r="A129" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B129">
         <v>58977</v>
@@ -9268,6 +11590,24 @@
       </c>
       <c r="V129">
         <v>36</v>
+      </c>
+      <c r="W129">
+        <v>65</v>
+      </c>
+      <c r="X129">
+        <v>75</v>
+      </c>
+      <c r="Y129">
+        <v>65</v>
+      </c>
+      <c r="Z129">
+        <v>27</v>
+      </c>
+      <c r="AA129">
+        <v>79</v>
+      </c>
+      <c r="AB129">
+        <v>1086</v>
       </c>
     </row>
   </sheetData>
